--- a/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carb-my.sharepoint.com/personal/tony_held_arb_ca_gov/Documents/code/pycharm/feedback_portal/feedback_forms/current_versions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{88EE8268-DAE4-4909-A2E0-59640DD7E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA83793-DBC5-4AF6-8FF0-3F441318BBD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DE60E-7E7C-491D-82FB-2D03BFEE79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="990" windowWidth="24195" windowHeight="11655" activeTab="5" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="6127" yWindow="2127" windowWidth="19200" windowHeight="11760" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3038,22 +3038,22 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="25" customWidth="1"/>
-    <col min="7" max="8" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.1171875" customWidth="1"/>
+    <col min="2" max="2" width="65.703125" customWidth="1"/>
+    <col min="3" max="3" width="4.703125" customWidth="1"/>
+    <col min="4" max="4" width="65.703125" customWidth="1"/>
+    <col min="5" max="5" width="4.1171875" customWidth="1"/>
+    <col min="6" max="6" width="5.703125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="5.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3107,14 +3107,14 @@
       <c r="E3" s="27"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -3184,7 +3184,7 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
     </row>
-    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B8" s="64" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
     </row>
-    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
     </row>
-    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="47" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
     </row>
-    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B11" s="47" t="s">
         <v>6</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
     </row>
-    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
     </row>
-    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="48" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="49" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="50" t="s">
         <v>10</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="44"/>
     </row>
-    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="44"/>
     </row>
-    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B18" s="47" t="s">
         <v>13</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
     </row>
-    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B19" s="47" t="s">
         <v>14</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
     </row>
-    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B20" s="47" t="s">
         <v>15</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
     </row>
-    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B21" s="48" t="s">
         <v>16</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="44"/>
     </row>
-    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B22" s="51" t="s">
         <v>17</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="44"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B27" s="35" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
     </row>
-    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
     </row>
-    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -3788,7 +3788,7 @@
       <c r="AF30" s="52"/>
       <c r="AG30" s="52"/>
     </row>
-    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B32" s="62" t="s">
         <v>246</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B33" s="62" t="s">
         <v>247</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
     </row>
-    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B34" s="62" t="s">
         <v>248</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B35" s="62" t="s">
         <v>249</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B36" s="62" t="s">
         <v>250</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B37" s="60" t="s">
         <v>251</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -3960,7 +3960,7 @@
       <c r="AF39" s="46"/>
       <c r="AG39" s="46"/>
     </row>
-    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B41" s="61" t="s">
         <v>252</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="E41" s="55"/>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B42" s="63" t="s">
         <v>253</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="44"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B43" s="61" t="s">
         <v>254</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B44" s="61" t="s">
         <v>255</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="44"/>
     </row>
-    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B45" s="61" t="s">
         <v>256</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="44"/>
     </row>
-    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -4121,7 +4121,7 @@
       <c r="AF47" s="46"/>
       <c r="AG47" s="46"/>
     </row>
-    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="66" t="s">
         <v>26</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="E49" s="55"/>
       <c r="F49" s="44"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B50" s="37" t="s">
         <v>28</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="E50" s="55"/>
       <c r="F50" s="44"/>
     </row>
-    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -4249,7 +4249,7 @@
       <c r="AF52" s="46"/>
       <c r="AG52" s="46"/>
     </row>
-    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="61" t="s">
         <v>211</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="44"/>
     </row>
-    <row r="55" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="61" t="s">
         <v>213</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="44"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="61" t="s">
         <v>244</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="61" t="s">
         <v>212</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="E57" s="38"/>
       <c r="F57" s="44"/>
     </row>
-    <row r="58" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="61" t="s">
         <v>214</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="44"/>
     </row>
-    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="61" t="s">
         <v>243</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="44"/>
     </row>
-    <row r="60" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B60" s="65" t="s">
         <v>263</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="44"/>
     </row>
-    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B61" s="37" t="s">
         <v>216</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
     </row>
-    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B62" s="61" t="s">
         <v>257</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
     </row>
-    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
@@ -4454,7 +4454,7 @@
       <c r="AF64" s="46"/>
       <c r="AG64" s="46"/>
     </row>
-    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="37" t="s">
         <v>245</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="44"/>
     </row>
-    <row r="67" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="61" t="s">
         <v>218</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="E67" s="40"/>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="37" t="s">
         <v>220</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
     </row>
-    <row r="69" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B69" s="61" t="s">
         <v>221</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
     </row>
-    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B70" s="61" t="s">
         <v>258</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
     </row>
-    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B71" s="61" t="s">
         <v>259</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
     </row>
-    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B72" s="37" t="s">
         <v>260</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
     </row>
-    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F74" s="44"/>
     </row>
-    <row r="76" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B76" s="37" t="s">
         <v>262</v>
       </c>
@@ -4672,25 +4672,25 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="10.703125" customWidth="1"/>
+    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4704,7 +4704,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4712,15 +4712,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4799,7 +4799,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" s="18" customFormat="1" ht="129" x14ac:dyDescent="0.5">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:18" s="18" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" s="18" customFormat="1" ht="301" x14ac:dyDescent="0.5">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" s="18" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="18" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="18" customFormat="1" ht="272.35000000000002" x14ac:dyDescent="0.5">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="10" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="10" customFormat="1" ht="315.35000000000002" x14ac:dyDescent="0.5">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -5271,77 +5271,77 @@
       </c>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
@@ -5368,14 +5368,14 @@
       <selection activeCell="B69" sqref="B69:B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -5389,12 +5389,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5408,7 +5408,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5446,7 +5446,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5460,7 +5460,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
         <v>96</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5492,7 +5492,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -5526,7 +5526,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -5557,7 +5557,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -5571,7 +5571,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -5585,7 +5585,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B18" s="7" t="s">
         <v>201</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -5616,7 +5616,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>204</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -5749,7 +5749,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B28" s="7" t="s">
         <v>209</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -5780,7 +5780,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>207</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>203</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>205</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -5930,7 +5930,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B39" s="7" t="s">
         <v>210</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -5961,7 +5961,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
         <v>207</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>208</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -6077,7 +6077,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -6091,7 +6091,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -6123,7 +6123,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B52" t="s">
         <v>100</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B53" t="s">
         <v>101</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B54" t="s">
         <v>102</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B56" t="s">
         <v>104</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B58" t="s">
         <v>106</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B59" t="s">
         <v>107</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B63" t="s">
         <v>111</v>
       </c>
@@ -6344,7 +6344,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -6375,7 +6375,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -6407,7 +6407,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
@@ -6441,70 +6441,70 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B72" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B74" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B75" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B76" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B80" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B83" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
@@ -6521,32 +6521,32 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B89" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6582,19 +6582,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="4" max="9" width="8.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B14" s="8" t="s">
         <v>135</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -6656,18 +6656,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="30.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6699,12 +6699,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B14" s="8" t="s">
         <v>141</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>143</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>146</v>
       </c>
@@ -6747,21 +6747,21 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5859375" customWidth="1"/>
+    <col min="3" max="3" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B1" s="13" t="s">
         <v>147</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="17"/>
@@ -6785,7 +6785,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6796,35 +6796,35 @@
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
@@ -6841,423 +6841,423 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>1000011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="23">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>35.321100000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>-119.5808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="23">
-        <v>45152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>35.321100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="23">
-        <v>45152</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>-119.5808</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="23">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -7266,24 +7266,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>137</v>
       </c>
@@ -7300,61 +7300,61 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R40">
-    <sortCondition ref="C11:C40"/>
-    <sortCondition ref="D11:D40"/>
+    <sortCondition ref="A1:A1048576"/>
+    <sortCondition ref="B1:B1048576"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DE60E-7E7C-491D-82FB-2D03BFEE79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE28FBA-C4A3-4EF1-8B75-3AFAFC755BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6127" yWindow="2127" windowWidth="19200" windowHeight="11760" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="32100" yWindow="3315" windowWidth="21600" windowHeight="11100" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3042,18 +3042,18 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" customWidth="1"/>
-    <col min="6" max="6" width="5.703125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="5.703125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="25" customWidth="1"/>
+    <col min="7" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3107,14 +3107,14 @@
       <c r="E3" s="27"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -3184,7 +3184,7 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
     </row>
-    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="64" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
     </row>
-    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
     </row>
-    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
     </row>
-    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
         <v>6</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
     </row>
-    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
     </row>
-    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="50" t="s">
         <v>10</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="44"/>
     </row>
-    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="44"/>
     </row>
-    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
         <v>13</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
     </row>
-    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
         <v>14</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
     </row>
-    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>15</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
     </row>
-    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
         <v>16</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="44"/>
     </row>
-    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
         <v>17</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="44"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
     </row>
-    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
     </row>
-    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -3788,7 +3788,7 @@
       <c r="AF30" s="52"/>
       <c r="AG30" s="52"/>
     </row>
-    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="62" t="s">
         <v>246</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="62" t="s">
         <v>247</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
     </row>
-    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="62" t="s">
         <v>248</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
         <v>249</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
         <v>250</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="60" t="s">
         <v>251</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -3960,7 +3960,7 @@
       <c r="AF39" s="46"/>
       <c r="AG39" s="46"/>
     </row>
-    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="61" t="s">
         <v>252</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="E41" s="55"/>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="63" t="s">
         <v>253</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="44"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="61" t="s">
         <v>254</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="61" t="s">
         <v>255</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="44"/>
     </row>
-    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="61" t="s">
         <v>256</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="44"/>
     </row>
-    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -4121,7 +4121,7 @@
       <c r="AF47" s="46"/>
       <c r="AG47" s="46"/>
     </row>
-    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="66" t="s">
         <v>26</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="E49" s="55"/>
       <c r="F49" s="44"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>28</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="E50" s="55"/>
       <c r="F50" s="44"/>
     </row>
-    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -4249,7 +4249,7 @@
       <c r="AF52" s="46"/>
       <c r="AG52" s="46"/>
     </row>
-    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="61" t="s">
         <v>211</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="44"/>
     </row>
-    <row r="55" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="61" t="s">
         <v>213</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="44"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="61" t="s">
         <v>244</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="61" t="s">
         <v>212</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="E57" s="38"/>
       <c r="F57" s="44"/>
     </row>
-    <row r="58" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="61" t="s">
         <v>214</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="44"/>
     </row>
-    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="61" t="s">
         <v>243</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="44"/>
     </row>
-    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B60" s="65" t="s">
         <v>263</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="44"/>
     </row>
-    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>216</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
     </row>
-    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B62" s="61" t="s">
         <v>257</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
     </row>
-    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
@@ -4454,7 +4454,7 @@
       <c r="AF64" s="46"/>
       <c r="AG64" s="46"/>
     </row>
-    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="37" t="s">
         <v>245</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="44"/>
     </row>
-    <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="61" t="s">
         <v>218</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="E67" s="40"/>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="37" t="s">
         <v>220</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
     </row>
-    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="61" t="s">
         <v>221</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
     </row>
-    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="61" t="s">
         <v>258</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
     </row>
-    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="61" t="s">
         <v>259</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
     </row>
-    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>260</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
     </row>
-    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="44"/>
     </row>
-    <row r="76" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>262</v>
       </c>
@@ -4672,25 +4672,25 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4704,7 +4704,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4712,15 +4712,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4799,7 +4799,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="18" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:18" s="18" customFormat="1" ht="301" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="18" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="18" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="18" customFormat="1" ht="272.35000000000002" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="18" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" ht="315.35000000000002" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -5271,77 +5271,77 @@
       </c>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
@@ -5368,14 +5368,14 @@
       <selection activeCell="B69" sqref="B69:B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -5389,12 +5389,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5408,7 +5408,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5446,7 +5446,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5460,7 +5460,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>96</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5492,7 +5492,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -5526,7 +5526,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -5557,7 +5557,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -5571,7 +5571,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -5585,7 +5585,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>201</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -5616,7 +5616,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>204</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -5749,7 +5749,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>209</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -5780,7 +5780,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>207</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>203</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>205</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -5930,7 +5930,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>210</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -5961,7 +5961,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>207</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>208</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -6077,7 +6077,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -6091,7 +6091,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -6123,7 +6123,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>100</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>101</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>102</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>104</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>106</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>107</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>111</v>
       </c>
@@ -6344,7 +6344,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -6375,7 +6375,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -6407,7 +6407,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
@@ -6441,70 +6441,70 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
@@ -6521,32 +6521,32 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6582,19 +6582,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>135</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -6656,18 +6656,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6699,12 +6699,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>141</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>143</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>146</v>
       </c>
@@ -6748,20 +6748,20 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A11" sqref="A11:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5859375" customWidth="1"/>
-    <col min="3" max="3" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1171875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>147</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="17"/>
@@ -6785,7 +6785,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6796,35 +6796,35 @@
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>137</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>137</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>137</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>137</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>137</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>137</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>137</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>137</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>137</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>137</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>137</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>137</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>137</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>137</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>137</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>137</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>137</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>137</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>137</v>
       </c>
@@ -7362,15 +7362,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
@@ -7381,7 +7372,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7616,15 +7607,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7635,7 +7627,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7652,4 +7644,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727B2AF-81C3-49EB-8FEA-91DCBB5A8C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC4D5A-982B-4D5D-8E5B-065C346804B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6033" yWindow="2773" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="5387" yWindow="2813" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <definedName name="jinja_venting_description_2">'Feedback Form'!$D$61</definedName>
     <definedName name="jinja_venting_exclusion">'Feedback Form'!$D$49</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7561,6 +7561,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7795,7 +7806,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7804,18 +7815,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7834,21 +7845,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>